--- a/pearson_tables/tp_netherlands_cumul-3-1.xlsx
+++ b/pearson_tables/tp_netherlands_cumul-3-1.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7183169139316559</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5843002195898683</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6486379279013716</v>
+        <v>-0.6892262280447684</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.6940140357424119</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.662542065002425</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.630718707006128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.756980734983923</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.5531044615805614</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5459817745024764</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.5372025192101046</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5644424360005337</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5655327714357266</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.6228017205059981</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.7338280920430863</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7287049937625102</v>
+        <v>0.7001554245138226</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.5374608999783709</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.627915969924331</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.6387758306212561</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.5434919296681651</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.645005338656398</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.7770180447601776</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -568,12 +568,14 @@
           <t>NAO_P</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
       <c r="C9" t="n">
-        <v>0.5480013887132409</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.564046344692882</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
